--- a/data/pca/factorExposure/factorExposure_2011-11-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-11-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01053634077534876</v>
+        <v>0.01180822249072639</v>
       </c>
       <c r="C2">
-        <v>-0.03173562820833482</v>
+        <v>0.0225285723173841</v>
       </c>
       <c r="D2">
-        <v>0.01810821414793594</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.02343454512701233</v>
+      </c>
+      <c r="E2">
+        <v>0.01130303942966948</v>
+      </c>
+      <c r="F2">
+        <v>0.02892566821347607</v>
+      </c>
+      <c r="G2">
+        <v>-0.001178472916938272</v>
+      </c>
+      <c r="H2">
+        <v>0.0230201543785445</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07361691025960178</v>
+        <v>0.0889032437917938</v>
       </c>
       <c r="C4">
-        <v>-0.06146439997754195</v>
+        <v>0.03491627108161723</v>
       </c>
       <c r="D4">
-        <v>0.07090570337706843</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.07174263777005345</v>
+      </c>
+      <c r="E4">
+        <v>0.0102841104433219</v>
+      </c>
+      <c r="F4">
+        <v>0.04017635449253695</v>
+      </c>
+      <c r="G4">
+        <v>-0.01301847322795205</v>
+      </c>
+      <c r="H4">
+        <v>-0.04371301377506601</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1097592820271626</v>
+        <v>0.1240364704385709</v>
       </c>
       <c r="C6">
-        <v>-0.06551332986604384</v>
+        <v>0.04786388848772196</v>
       </c>
       <c r="D6">
-        <v>-0.001402194553938385</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01258641330035923</v>
+      </c>
+      <c r="E6">
+        <v>-0.02819889720278543</v>
+      </c>
+      <c r="F6">
+        <v>0.04919152317511954</v>
+      </c>
+      <c r="G6">
+        <v>-0.0160057713045643</v>
+      </c>
+      <c r="H6">
+        <v>0.121856579424138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05321139200173093</v>
+        <v>0.0646593666886988</v>
       </c>
       <c r="C7">
-        <v>-0.03779219559113672</v>
+        <v>0.01658553356580069</v>
       </c>
       <c r="D7">
-        <v>0.03082369685927801</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.05253485708812733</v>
+      </c>
+      <c r="E7">
+        <v>0.03207089473712033</v>
+      </c>
+      <c r="F7">
+        <v>0.04337932881897481</v>
+      </c>
+      <c r="G7">
+        <v>0.02828589867884062</v>
+      </c>
+      <c r="H7">
+        <v>-0.01501215830847496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.03989335512397733</v>
+        <v>0.04457891468084079</v>
       </c>
       <c r="C8">
-        <v>-0.01713815889715271</v>
+        <v>0.01063865947887819</v>
       </c>
       <c r="D8">
-        <v>0.06292881677580424</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02581513914668379</v>
+      </c>
+      <c r="E8">
+        <v>0.01005343893093213</v>
+      </c>
+      <c r="F8">
+        <v>0.07102939916825357</v>
+      </c>
+      <c r="G8">
+        <v>-0.07525215479758435</v>
+      </c>
+      <c r="H8">
+        <v>0.01299318501261998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.07034224681299696</v>
+        <v>0.08075689944886318</v>
       </c>
       <c r="C9">
-        <v>-0.0473002976479819</v>
+        <v>0.02198688514541524</v>
       </c>
       <c r="D9">
-        <v>0.06757672680167079</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0649569259743449</v>
+      </c>
+      <c r="E9">
+        <v>0.02371262793530618</v>
+      </c>
+      <c r="F9">
+        <v>0.03339459073189723</v>
+      </c>
+      <c r="G9">
+        <v>-0.02633223847589351</v>
+      </c>
+      <c r="H9">
+        <v>-0.04353612291563173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.02546939400505736</v>
+        <v>0.04554641960522428</v>
       </c>
       <c r="C10">
-        <v>-0.02152926788972106</v>
+        <v>0.08029810040823365</v>
       </c>
       <c r="D10">
-        <v>-0.1694457160970106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1706076694700779</v>
+      </c>
+      <c r="E10">
+        <v>0.03915982008670325</v>
+      </c>
+      <c r="F10">
+        <v>0.05099945843177293</v>
+      </c>
+      <c r="G10">
+        <v>0.03834096083164055</v>
+      </c>
+      <c r="H10">
+        <v>0.05355904607218444</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.06674463818666668</v>
+        <v>0.07345569245961241</v>
       </c>
       <c r="C11">
-        <v>-0.04361882015614293</v>
+        <v>0.01274844315812489</v>
       </c>
       <c r="D11">
-        <v>0.0547998108926241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06540666580154686</v>
+      </c>
+      <c r="E11">
+        <v>-0.0004188966537278251</v>
+      </c>
+      <c r="F11">
+        <v>0.03339774182791497</v>
+      </c>
+      <c r="G11">
+        <v>-0.04900919968999649</v>
+      </c>
+      <c r="H11">
+        <v>-0.06457523028302463</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.05664205828005785</v>
+        <v>0.06741163341572028</v>
       </c>
       <c r="C12">
-        <v>-0.05352466565732471</v>
+        <v>0.02741664815254769</v>
       </c>
       <c r="D12">
-        <v>0.04689219482075179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05367346007410878</v>
+      </c>
+      <c r="E12">
+        <v>0.01174208325180985</v>
+      </c>
+      <c r="F12">
+        <v>0.02216723619018251</v>
+      </c>
+      <c r="G12">
+        <v>-0.02589240255644628</v>
+      </c>
+      <c r="H12">
+        <v>-0.02959793611816738</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06886726624930282</v>
+        <v>0.07065778620274821</v>
       </c>
       <c r="C13">
-        <v>-0.0515439482148833</v>
+        <v>0.02567867119389799</v>
       </c>
       <c r="D13">
-        <v>0.03672647946089394</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.04079305364564836</v>
+      </c>
+      <c r="E13">
+        <v>0.005870822932463135</v>
+      </c>
+      <c r="F13">
+        <v>0.02387976516698609</v>
+      </c>
+      <c r="G13">
+        <v>-0.02362132605370219</v>
+      </c>
+      <c r="H13">
+        <v>-0.05482502034925165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03002851348192066</v>
+        <v>0.03968699393406429</v>
       </c>
       <c r="C14">
-        <v>-0.03105172572041613</v>
+        <v>0.02627850310384669</v>
       </c>
       <c r="D14">
-        <v>-0.007248078936663716</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.01534637071057984</v>
+      </c>
+      <c r="E14">
+        <v>0.02537260865552551</v>
+      </c>
+      <c r="F14">
+        <v>0.01494250978047743</v>
+      </c>
+      <c r="G14">
+        <v>-0.01761640334217171</v>
+      </c>
+      <c r="H14">
+        <v>-0.06352314908978501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.04124265347570776</v>
+        <v>0.04070782401123971</v>
       </c>
       <c r="C15">
-        <v>-0.01432400684744332</v>
+        <v>0.004180581776047076</v>
       </c>
       <c r="D15">
-        <v>0.02279082191743287</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.01043615631059012</v>
+      </c>
+      <c r="E15">
+        <v>0.03479816515173929</v>
+      </c>
+      <c r="F15">
+        <v>0.003124162471039197</v>
+      </c>
+      <c r="G15">
+        <v>-0.02859689474721471</v>
+      </c>
+      <c r="H15">
+        <v>-0.02760011968204482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.05604504192470572</v>
+        <v>0.06894440872797633</v>
       </c>
       <c r="C16">
-        <v>-0.04238969556303362</v>
+        <v>0.01759742535964698</v>
       </c>
       <c r="D16">
-        <v>0.05514040096257027</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06506349604458421</v>
+      </c>
+      <c r="E16">
+        <v>0.00472117426646214</v>
+      </c>
+      <c r="F16">
+        <v>0.02956597404052945</v>
+      </c>
+      <c r="G16">
+        <v>-0.02293148785774584</v>
+      </c>
+      <c r="H16">
+        <v>-0.04978364444304501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0640820266794586</v>
+        <v>0.06309602651418084</v>
       </c>
       <c r="C20">
-        <v>-0.03119620236842676</v>
+        <v>0.004625201829034891</v>
       </c>
       <c r="D20">
-        <v>0.04364315830081807</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.04091540073011696</v>
+      </c>
+      <c r="E20">
+        <v>0.005045869303468054</v>
+      </c>
+      <c r="F20">
+        <v>0.02608791969372874</v>
+      </c>
+      <c r="G20">
+        <v>-0.01741329720661553</v>
+      </c>
+      <c r="H20">
+        <v>-0.04665840474552562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03302943270261968</v>
+        <v>0.02940784656552754</v>
       </c>
       <c r="C21">
-        <v>-0.009840652369524328</v>
+        <v>-0.004136202844191294</v>
       </c>
       <c r="D21">
-        <v>0.01260876653385768</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.01859823959070809</v>
+      </c>
+      <c r="E21">
+        <v>0.04063506932362865</v>
+      </c>
+      <c r="F21">
+        <v>-0.01296874365858344</v>
+      </c>
+      <c r="G21">
+        <v>-0.008978935112854186</v>
+      </c>
+      <c r="H21">
+        <v>0.04710923631104056</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07646908427976083</v>
+        <v>0.06878317433030309</v>
       </c>
       <c r="C22">
-        <v>-0.06955328549461108</v>
+        <v>0.01915744761251062</v>
       </c>
       <c r="D22">
-        <v>0.1470630621720918</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1132538291931716</v>
+      </c>
+      <c r="E22">
+        <v>0.6093032692381841</v>
+      </c>
+      <c r="F22">
+        <v>-0.05566833399398654</v>
+      </c>
+      <c r="G22">
+        <v>0.1694839020924148</v>
+      </c>
+      <c r="H22">
+        <v>0.140925921636668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.07757010164985165</v>
+        <v>0.06973544854620983</v>
       </c>
       <c r="C23">
-        <v>-0.06804138444608111</v>
+        <v>0.01755776879472279</v>
       </c>
       <c r="D23">
-        <v>0.1483383698947881</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1141079016472485</v>
+      </c>
+      <c r="E23">
+        <v>0.6114090531156584</v>
+      </c>
+      <c r="F23">
+        <v>-0.05500348590848986</v>
+      </c>
+      <c r="G23">
+        <v>0.1639263373301113</v>
+      </c>
+      <c r="H23">
+        <v>0.1366257217474529</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07330370708212061</v>
+        <v>0.07889734102886414</v>
       </c>
       <c r="C24">
-        <v>-0.05360786938456674</v>
+        <v>0.02084722537305162</v>
       </c>
       <c r="D24">
-        <v>0.06094426033071487</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06458640005860453</v>
+      </c>
+      <c r="E24">
+        <v>0.01224372570098756</v>
+      </c>
+      <c r="F24">
+        <v>0.03735245489195983</v>
+      </c>
+      <c r="G24">
+        <v>-0.0370570643145542</v>
+      </c>
+      <c r="H24">
+        <v>-0.03121476950946354</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07200448424455043</v>
+        <v>0.07794234268574653</v>
       </c>
       <c r="C25">
-        <v>-0.05667619580824379</v>
+        <v>0.02652863316867255</v>
       </c>
       <c r="D25">
-        <v>0.05595081064902925</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05725842847686194</v>
+      </c>
+      <c r="E25">
+        <v>0.01407399594402188</v>
+      </c>
+      <c r="F25">
+        <v>0.03209720513942586</v>
+      </c>
+      <c r="G25">
+        <v>-0.04643074368161571</v>
+      </c>
+      <c r="H25">
+        <v>-0.04204246866022478</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04427181305959689</v>
+        <v>0.04379172030147728</v>
       </c>
       <c r="C26">
-        <v>-0.0157720578189044</v>
+        <v>0.001162469970162269</v>
       </c>
       <c r="D26">
-        <v>0.01121466047073053</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01932486727681339</v>
+      </c>
+      <c r="E26">
+        <v>0.04318864182319023</v>
+      </c>
+      <c r="F26">
+        <v>0.02788992975722045</v>
+      </c>
+      <c r="G26">
+        <v>-0.02115983621580955</v>
+      </c>
+      <c r="H26">
+        <v>-0.04080543048792636</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.03933918589505929</v>
+        <v>0.06619992813739561</v>
       </c>
       <c r="C28">
-        <v>-0.0578426433515199</v>
+        <v>0.14518630826281</v>
       </c>
       <c r="D28">
-        <v>-0.3070698022186302</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.286184047640944</v>
+      </c>
+      <c r="E28">
+        <v>0.04007923582522413</v>
+      </c>
+      <c r="F28">
+        <v>0.05132654366258572</v>
+      </c>
+      <c r="G28">
+        <v>-0.01747137791304205</v>
+      </c>
+      <c r="H28">
+        <v>0.05942929946669157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04422183435473096</v>
+        <v>0.04791965982969378</v>
       </c>
       <c r="C29">
-        <v>-0.0414721533446327</v>
+        <v>0.02929780851556336</v>
       </c>
       <c r="D29">
-        <v>0.0004795614111354033</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01675985261354208</v>
+      </c>
+      <c r="E29">
+        <v>0.05479660986805012</v>
+      </c>
+      <c r="F29">
+        <v>0.01435640022892347</v>
+      </c>
+      <c r="G29">
+        <v>-0.008759714292883945</v>
+      </c>
+      <c r="H29">
+        <v>-0.07774380095481923</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1261699269389016</v>
+        <v>0.1254095977624511</v>
       </c>
       <c r="C30">
-        <v>-0.1007856477631615</v>
+        <v>0.0496602406360455</v>
       </c>
       <c r="D30">
-        <v>0.1112129450670787</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.08911466662941207</v>
+      </c>
+      <c r="E30">
+        <v>0.05594245616051726</v>
+      </c>
+      <c r="F30">
+        <v>0.01722988615754346</v>
+      </c>
+      <c r="G30">
+        <v>-0.06122127916444061</v>
+      </c>
+      <c r="H30">
+        <v>0.04317753130601302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04733755285657183</v>
+        <v>0.04921589122381571</v>
       </c>
       <c r="C31">
-        <v>-0.02687610997519329</v>
+        <v>0.007942988606674603</v>
       </c>
       <c r="D31">
-        <v>0.01962750530770269</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03554907242722041</v>
+      </c>
+      <c r="E31">
+        <v>0.02240438833049302</v>
+      </c>
+      <c r="F31">
+        <v>0.009375438932684787</v>
+      </c>
+      <c r="G31">
+        <v>0.002447037044142433</v>
+      </c>
+      <c r="H31">
+        <v>-0.07089333345464882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03358659452742939</v>
+        <v>0.03734769301209258</v>
       </c>
       <c r="C32">
-        <v>-0.02529798952293883</v>
+        <v>0.02098880778881844</v>
       </c>
       <c r="D32">
-        <v>0.03164068513083979</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01332319479381469</v>
+      </c>
+      <c r="E32">
+        <v>0.04658566590220029</v>
+      </c>
+      <c r="F32">
+        <v>-0.004262131179146054</v>
+      </c>
+      <c r="G32">
+        <v>-0.0435162687318651</v>
+      </c>
+      <c r="H32">
+        <v>-0.008112193938843992</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08429305080235211</v>
+        <v>0.0940318140801721</v>
       </c>
       <c r="C33">
-        <v>-0.04868088638884004</v>
+        <v>0.01937417276128992</v>
       </c>
       <c r="D33">
-        <v>0.04527420477364279</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.05246464264178499</v>
+      </c>
+      <c r="E33">
+        <v>0.01176642802404655</v>
+      </c>
+      <c r="F33">
+        <v>0.001437408327676275</v>
+      </c>
+      <c r="G33">
+        <v>-0.008217136258845924</v>
+      </c>
+      <c r="H33">
+        <v>-0.06632877229535385</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05828816892959243</v>
+        <v>0.06570231187495978</v>
       </c>
       <c r="C34">
-        <v>-0.02937811096035966</v>
+        <v>0.005071417130384871</v>
       </c>
       <c r="D34">
-        <v>0.04930906734847765</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05102405273856696</v>
+      </c>
+      <c r="E34">
+        <v>0.006706197477041076</v>
+      </c>
+      <c r="F34">
+        <v>0.0210700110748234</v>
+      </c>
+      <c r="G34">
+        <v>-0.03248642276827014</v>
+      </c>
+      <c r="H34">
+        <v>-0.05317875618492889</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03562925223174438</v>
+        <v>0.03773014160707474</v>
       </c>
       <c r="C35">
-        <v>-0.01444626359838891</v>
+        <v>0.004600909981187116</v>
       </c>
       <c r="D35">
-        <v>0.02136171885265133</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01813913889553064</v>
+      </c>
+      <c r="E35">
+        <v>0.02355925140199383</v>
+      </c>
+      <c r="F35">
+        <v>-0.01618805703511275</v>
+      </c>
+      <c r="G35">
+        <v>0.00538296855936257</v>
+      </c>
+      <c r="H35">
+        <v>-0.03510257497130895</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02539602212937053</v>
+        <v>0.02761793558348037</v>
       </c>
       <c r="C36">
-        <v>-0.0212935152925703</v>
+        <v>0.01125020357564718</v>
       </c>
       <c r="D36">
-        <v>0.0182757640861253</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.02008788090183952</v>
+      </c>
+      <c r="E36">
+        <v>0.03243857427493146</v>
+      </c>
+      <c r="F36">
+        <v>0.02596739225101809</v>
+      </c>
+      <c r="G36">
+        <v>-0.0120047303020679</v>
+      </c>
+      <c r="H36">
+        <v>-0.04367796721016597</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.04926411464153122</v>
+        <v>0.04763666321307244</v>
       </c>
       <c r="C38">
-        <v>-0.0102998802149556</v>
+        <v>-0.005942843006040505</v>
       </c>
       <c r="D38">
-        <v>0.008531936534644442</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02174224579094534</v>
+      </c>
+      <c r="E38">
+        <v>0.04905260798494562</v>
+      </c>
+      <c r="F38">
+        <v>-0.001584352732352529</v>
+      </c>
+      <c r="G38">
+        <v>-0.002493291915667383</v>
+      </c>
+      <c r="H38">
+        <v>-0.02248418412501607</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09024398640733523</v>
+        <v>0.1018708998580367</v>
       </c>
       <c r="C39">
-        <v>-0.07490700696949307</v>
+        <v>0.04170717634972901</v>
       </c>
       <c r="D39">
-        <v>0.0471187146986158</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06731714689850198</v>
+      </c>
+      <c r="E39">
+        <v>0.003046604971943309</v>
+      </c>
+      <c r="F39">
+        <v>0.001785115035367562</v>
+      </c>
+      <c r="G39">
+        <v>-0.0535821971426506</v>
+      </c>
+      <c r="H39">
+        <v>-0.01833392441927672</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.08018273392101816</v>
+        <v>0.06182498271074843</v>
       </c>
       <c r="C40">
-        <v>-0.04121635784939763</v>
+        <v>-0.00130387506118741</v>
       </c>
       <c r="D40">
-        <v>0.01237529916843661</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.03498267604911442</v>
+      </c>
+      <c r="E40">
+        <v>0.0374286529898207</v>
+      </c>
+      <c r="F40">
+        <v>-0.03598145050283572</v>
+      </c>
+      <c r="G40">
+        <v>-0.06379780510444269</v>
+      </c>
+      <c r="H40">
+        <v>0.07165562503435119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04580592503067504</v>
+        <v>0.04720560969792988</v>
       </c>
       <c r="C41">
-        <v>-0.01993265995643648</v>
+        <v>0.0006291308983094388</v>
       </c>
       <c r="D41">
-        <v>0.03304253850520608</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03270062002859321</v>
+      </c>
+      <c r="E41">
+        <v>0.001841067638620466</v>
+      </c>
+      <c r="F41">
+        <v>-0.01367444143925374</v>
+      </c>
+      <c r="G41">
+        <v>-0.008182137320995096</v>
+      </c>
+      <c r="H41">
+        <v>-0.02839245732443379</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05414762006226072</v>
+        <v>0.06074205106036316</v>
       </c>
       <c r="C43">
-        <v>-0.03268847074360426</v>
+        <v>0.01529014472542586</v>
       </c>
       <c r="D43">
-        <v>0.006300389287508053</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.03151611532800819</v>
+      </c>
+      <c r="E43">
+        <v>0.01790297152442683</v>
+      </c>
+      <c r="F43">
+        <v>0.0138143448982316</v>
+      </c>
+      <c r="G43">
+        <v>0.01330567077368974</v>
+      </c>
+      <c r="H43">
+        <v>-0.06307353848521403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09861521795651282</v>
+        <v>0.0954379313477927</v>
       </c>
       <c r="C44">
-        <v>-0.03793353209571278</v>
+        <v>0.001839504987037219</v>
       </c>
       <c r="D44">
-        <v>0.05227210701936664</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.05315572676187395</v>
+      </c>
+      <c r="E44">
+        <v>0.07310194918867957</v>
+      </c>
+      <c r="F44">
+        <v>0.07743511872988658</v>
+      </c>
+      <c r="G44">
+        <v>-0.07795575539135571</v>
+      </c>
+      <c r="H44">
+        <v>-0.05034890536594409</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02495025611140891</v>
+        <v>0.03496457607056416</v>
       </c>
       <c r="C46">
-        <v>-0.0238617564230376</v>
+        <v>0.01328102103301849</v>
       </c>
       <c r="D46">
-        <v>0.03420764218409599</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.04081213421666062</v>
+      </c>
+      <c r="E46">
+        <v>0.02906797150909783</v>
+      </c>
+      <c r="F46">
+        <v>0.01639537228428606</v>
+      </c>
+      <c r="G46">
+        <v>0.002275114537733938</v>
+      </c>
+      <c r="H46">
+        <v>-0.03195645877836893</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03112214387569611</v>
+        <v>0.04015888054544159</v>
       </c>
       <c r="C47">
-        <v>-0.02506915024782232</v>
+        <v>0.01985085612346548</v>
       </c>
       <c r="D47">
-        <v>-0.0008878300553688689</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01148150086191981</v>
+      </c>
+      <c r="E47">
+        <v>0.04042651393369744</v>
+      </c>
+      <c r="F47">
+        <v>-0.007593006571938237</v>
+      </c>
+      <c r="G47">
+        <v>0.02913638131725792</v>
+      </c>
+      <c r="H47">
+        <v>-0.0373324855722488</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0358170646232052</v>
+        <v>0.0395342897044276</v>
       </c>
       <c r="C48">
-        <v>-0.02839389495266503</v>
+        <v>0.01449430012169666</v>
       </c>
       <c r="D48">
-        <v>0.02711239175419323</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.02225579014156926</v>
+      </c>
+      <c r="E48">
+        <v>0.0396220042668145</v>
+      </c>
+      <c r="F48">
+        <v>0.00802151307640243</v>
+      </c>
+      <c r="G48">
+        <v>-0.01798249195783473</v>
+      </c>
+      <c r="H48">
+        <v>-0.02501182299178651</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1587465467949498</v>
+        <v>0.1970957839350774</v>
       </c>
       <c r="C49">
-        <v>-0.05247765312074412</v>
+        <v>0.03437233984504982</v>
       </c>
       <c r="D49">
-        <v>0.004840387871861446</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.0292919658220156</v>
+      </c>
+      <c r="E49">
+        <v>-0.1691500375360853</v>
+      </c>
+      <c r="F49">
+        <v>0.04427654939177054</v>
+      </c>
+      <c r="G49">
+        <v>0.1523353737863462</v>
+      </c>
+      <c r="H49">
+        <v>0.2144488527746377</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.04260390285095998</v>
+        <v>0.04556399712101964</v>
       </c>
       <c r="C50">
-        <v>-0.0278976435360121</v>
+        <v>0.009512067911485424</v>
       </c>
       <c r="D50">
-        <v>0.03604227399050096</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.04057240130478221</v>
+      </c>
+      <c r="E50">
+        <v>0.03179932697457584</v>
+      </c>
+      <c r="F50">
+        <v>0.004103049405671825</v>
+      </c>
+      <c r="G50">
+        <v>0.002871437962636794</v>
+      </c>
+      <c r="H50">
+        <v>-0.07523253345856384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02449896957337602</v>
+        <v>0.03445700341086688</v>
       </c>
       <c r="C51">
-        <v>-0.006101347393268382</v>
+        <v>0.00475039489628701</v>
       </c>
       <c r="D51">
-        <v>-0.0004782681529215002</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.001886426783996704</v>
+      </c>
+      <c r="E51">
+        <v>0.01198302361791872</v>
+      </c>
+      <c r="F51">
+        <v>0.01114616071140876</v>
+      </c>
+      <c r="G51">
+        <v>0.01389056763647521</v>
+      </c>
+      <c r="H51">
+        <v>0.01793981358232524</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1512862578801431</v>
+        <v>0.1607534715838654</v>
       </c>
       <c r="C53">
-        <v>-0.08574435053918796</v>
+        <v>0.05057284830193813</v>
       </c>
       <c r="D53">
-        <v>-0.008174965032860582</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.03023138146280717</v>
+      </c>
+      <c r="E53">
+        <v>-0.02989306808291925</v>
+      </c>
+      <c r="F53">
+        <v>-0.0002183405744755059</v>
+      </c>
+      <c r="G53">
+        <v>-0.01113743781089483</v>
+      </c>
+      <c r="H53">
+        <v>-0.2036368691869843</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05784476069048413</v>
+        <v>0.05825556135992621</v>
       </c>
       <c r="C54">
-        <v>-0.03299005061595536</v>
+        <v>0.01682032020974039</v>
       </c>
       <c r="D54">
-        <v>0.02194766178931844</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01861464806635297</v>
+      </c>
+      <c r="E54">
+        <v>0.05235450919186813</v>
+      </c>
+      <c r="F54">
+        <v>0.01653065037367059</v>
+      </c>
+      <c r="G54">
+        <v>-0.05544538745950691</v>
+      </c>
+      <c r="H54">
+        <v>-0.04229235975057134</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09892874482971747</v>
+        <v>0.1013822025589801</v>
       </c>
       <c r="C55">
-        <v>-0.05685722619423805</v>
+        <v>0.02863358243315786</v>
       </c>
       <c r="D55">
-        <v>0.01189557030993297</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.03162421785849384</v>
+      </c>
+      <c r="E55">
+        <v>5.678487658854047e-05</v>
+      </c>
+      <c r="F55">
+        <v>0.01570669721474936</v>
+      </c>
+      <c r="G55">
+        <v>-0.02685980482918893</v>
+      </c>
+      <c r="H55">
+        <v>-0.1581133699956335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1454248070354928</v>
+        <v>0.1547028220846492</v>
       </c>
       <c r="C56">
-        <v>-0.0883724315751557</v>
+        <v>0.04736939658049523</v>
       </c>
       <c r="D56">
-        <v>-0.0049678934340414</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.04709414096983442</v>
+      </c>
+      <c r="E56">
+        <v>-0.01350951887810935</v>
+      </c>
+      <c r="F56">
+        <v>0.02207813460487193</v>
+      </c>
+      <c r="G56">
+        <v>-0.02025340096284512</v>
+      </c>
+      <c r="H56">
+        <v>-0.2049111902332316</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1303466004087826</v>
+        <v>0.09871099649335825</v>
       </c>
       <c r="C58">
-        <v>0.01577605138212455</v>
+        <v>-0.06811012759977408</v>
       </c>
       <c r="D58">
-        <v>0.05104580596303374</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.02330548387734327</v>
+      </c>
+      <c r="E58">
+        <v>0.1238144449388853</v>
+      </c>
+      <c r="F58">
+        <v>0.02771866231256566</v>
+      </c>
+      <c r="G58">
+        <v>0.07038758517393616</v>
+      </c>
+      <c r="H58">
+        <v>0.1647541752053326</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1151294975188954</v>
+        <v>0.1439092468542979</v>
       </c>
       <c r="C59">
-        <v>-0.07334503506998062</v>
+        <v>0.1601952631086328</v>
       </c>
       <c r="D59">
-        <v>-0.4074987615026386</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3388422171986371</v>
+      </c>
+      <c r="E59">
+        <v>0.03756772091812624</v>
+      </c>
+      <c r="F59">
+        <v>0.002868858933228143</v>
+      </c>
+      <c r="G59">
+        <v>-0.007691218272592206</v>
+      </c>
+      <c r="H59">
+        <v>-0.01228714730199487</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2042330154662262</v>
+        <v>0.2376420368912752</v>
       </c>
       <c r="C60">
-        <v>-0.1037407532716844</v>
+        <v>0.06397832703583545</v>
       </c>
       <c r="D60">
-        <v>0.004839302797034216</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.05128132017444435</v>
+      </c>
+      <c r="E60">
+        <v>-0.1140138119709806</v>
+      </c>
+      <c r="F60">
+        <v>0.0510463043005004</v>
+      </c>
+      <c r="G60">
+        <v>0.03410130123086781</v>
+      </c>
+      <c r="H60">
+        <v>0.1444680784843062</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.07830166223723833</v>
+        <v>0.08596497978224883</v>
       </c>
       <c r="C61">
-        <v>-0.05020280306007966</v>
+        <v>0.02526540409262779</v>
       </c>
       <c r="D61">
-        <v>0.02943639046996425</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04615578739850628</v>
+      </c>
+      <c r="E61">
+        <v>0.006991751066560943</v>
+      </c>
+      <c r="F61">
+        <v>0.01240064627235691</v>
+      </c>
+      <c r="G61">
+        <v>-0.03729826324299995</v>
+      </c>
+      <c r="H61">
+        <v>-0.06231072891805789</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1294700289225001</v>
+        <v>0.1346446815032763</v>
       </c>
       <c r="C62">
-        <v>-0.05835587615931496</v>
+        <v>0.01985545694234329</v>
       </c>
       <c r="D62">
-        <v>-0.005989448988400071</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04475377277711012</v>
+      </c>
+      <c r="E62">
+        <v>-0.045488999557175</v>
+      </c>
+      <c r="F62">
+        <v>-0.01843113585029479</v>
+      </c>
+      <c r="G62">
+        <v>-0.04078416224022968</v>
+      </c>
+      <c r="H62">
+        <v>-0.1961446829073449</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0502265253979733</v>
+        <v>0.0487636740716746</v>
       </c>
       <c r="C63">
-        <v>-0.02634376334242781</v>
+        <v>0.01072947084891996</v>
       </c>
       <c r="D63">
-        <v>0.02729148149223774</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.02390865338668821</v>
+      </c>
+      <c r="E63">
+        <v>0.04163351869558482</v>
+      </c>
+      <c r="F63">
+        <v>-0.0005687165643665243</v>
+      </c>
+      <c r="G63">
+        <v>-0.03293997027728613</v>
+      </c>
+      <c r="H63">
+        <v>-0.0352372598685093</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1061809840045391</v>
+        <v>0.1106837174475713</v>
       </c>
       <c r="C64">
-        <v>-0.04577114414764391</v>
+        <v>0.02131214582497728</v>
       </c>
       <c r="D64">
-        <v>0.01743894384356963</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.02816258169678282</v>
+      </c>
+      <c r="E64">
+        <v>0.04009214854531991</v>
+      </c>
+      <c r="F64">
+        <v>0.04661250425299816</v>
+      </c>
+      <c r="G64">
+        <v>-0.06302718445615932</v>
+      </c>
+      <c r="H64">
+        <v>-0.02376180173202318</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.125474416176459</v>
+        <v>0.129917506592531</v>
       </c>
       <c r="C65">
-        <v>-0.07250738065775084</v>
+        <v>0.05013127758916818</v>
       </c>
       <c r="D65">
-        <v>0.007618621638893583</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.0167201191292839</v>
+      </c>
+      <c r="E65">
+        <v>-0.00819087479037686</v>
+      </c>
+      <c r="F65">
+        <v>0.03474121352709854</v>
+      </c>
+      <c r="G65">
+        <v>-0.03936320094955596</v>
+      </c>
+      <c r="H65">
+        <v>0.1442737092879461</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1480291961323078</v>
+        <v>0.1529062967250341</v>
       </c>
       <c r="C66">
-        <v>-0.08839426608802782</v>
+        <v>0.03228337835152165</v>
       </c>
       <c r="D66">
-        <v>0.09079227895944468</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1059033461051684</v>
+      </c>
+      <c r="E66">
+        <v>-0.02581935133285509</v>
+      </c>
+      <c r="F66">
+        <v>0.006194155791967706</v>
+      </c>
+      <c r="G66">
+        <v>-0.07605774700714996</v>
+      </c>
+      <c r="H66">
+        <v>-0.08037606525328812</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07803669022093936</v>
+        <v>0.08674034926579649</v>
       </c>
       <c r="C67">
-        <v>-0.01856719093999811</v>
+        <v>-0.0004039928648677523</v>
       </c>
       <c r="D67">
-        <v>0.014782070167679</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.0334863650843048</v>
+      </c>
+      <c r="E67">
+        <v>0.02079947580799926</v>
+      </c>
+      <c r="F67">
+        <v>0.01442714764902786</v>
+      </c>
+      <c r="G67">
+        <v>0.01180291281343388</v>
+      </c>
+      <c r="H67">
+        <v>-0.01969696149677368</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.04860845834422139</v>
+        <v>0.05918324927999876</v>
       </c>
       <c r="C68">
-        <v>-0.04177966841207358</v>
+        <v>0.1124822118332608</v>
       </c>
       <c r="D68">
-        <v>-0.2601708257196979</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2509731281382104</v>
+      </c>
+      <c r="E68">
+        <v>0.04787155328951089</v>
+      </c>
+      <c r="F68">
+        <v>0.01178747881421382</v>
+      </c>
+      <c r="G68">
+        <v>0.0006448827277068397</v>
+      </c>
+      <c r="H68">
+        <v>-0.02122916885765356</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0534373860907572</v>
+        <v>0.05231447405142803</v>
       </c>
       <c r="C69">
-        <v>-0.02476742186357499</v>
+        <v>0.005523831640731248</v>
       </c>
       <c r="D69">
-        <v>0.02012992571775888</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.02137557441606091</v>
+      </c>
+      <c r="E69">
+        <v>0.02394659647778311</v>
+      </c>
+      <c r="F69">
+        <v>-0.01074969592501854</v>
+      </c>
+      <c r="G69">
+        <v>0.0001953124148040152</v>
+      </c>
+      <c r="H69">
+        <v>-0.04656009010270276</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.00611470445448326</v>
+        <v>0.03106490702020416</v>
       </c>
       <c r="C70">
-        <v>0.001580482425656919</v>
+        <v>0.005437670920284762</v>
       </c>
       <c r="D70">
-        <v>-0.01317570043756871</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.006467128340762232</v>
+      </c>
+      <c r="E70">
+        <v>-0.02401186819319846</v>
+      </c>
+      <c r="F70">
+        <v>-0.007947850400248112</v>
+      </c>
+      <c r="G70">
+        <v>0.02916770417714425</v>
+      </c>
+      <c r="H70">
+        <v>0.03509100949356881</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.0467756927041212</v>
+        <v>0.06528551129150682</v>
       </c>
       <c r="C71">
-        <v>-0.03935561488788799</v>
+        <v>0.1253304568192255</v>
       </c>
       <c r="D71">
-        <v>-0.2913655633456368</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2774326024770969</v>
+      </c>
+      <c r="E71">
+        <v>0.04804518657595018</v>
+      </c>
+      <c r="F71">
+        <v>0.03754818203380434</v>
+      </c>
+      <c r="G71">
+        <v>0.002534879183445655</v>
+      </c>
+      <c r="H71">
+        <v>-0.01479390716070403</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1375431622989739</v>
+        <v>0.1418807617455332</v>
       </c>
       <c r="C72">
-        <v>-0.06466218699232522</v>
+        <v>0.03233876340708866</v>
       </c>
       <c r="D72">
-        <v>-0.01532210967108224</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.007896531499945156</v>
+      </c>
+      <c r="E72">
+        <v>-0.04681230968013129</v>
+      </c>
+      <c r="F72">
+        <v>-0.1590455969777375</v>
+      </c>
+      <c r="G72">
+        <v>-0.1148757505885326</v>
+      </c>
+      <c r="H72">
+        <v>0.00207423527382505</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2797594448773804</v>
+        <v>0.2844072914947022</v>
       </c>
       <c r="C73">
-        <v>-0.09930259212614391</v>
+        <v>0.0087626765395388</v>
       </c>
       <c r="D73">
-        <v>0.04422775574106105</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.09786052267967864</v>
+      </c>
+      <c r="E73">
+        <v>-0.2596603155522517</v>
+      </c>
+      <c r="F73">
+        <v>0.06900874011604353</v>
+      </c>
+      <c r="G73">
+        <v>0.2600571338189047</v>
+      </c>
+      <c r="H73">
+        <v>0.3829678626894627</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.07784319955863116</v>
+        <v>0.08971722500071468</v>
       </c>
       <c r="C74">
-        <v>-0.07617871595049065</v>
+        <v>0.048802265446907</v>
       </c>
       <c r="D74">
-        <v>0.005196319781061041</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.04730657529385048</v>
+      </c>
+      <c r="E74">
+        <v>-0.005848500475273849</v>
+      </c>
+      <c r="F74">
+        <v>-0.0008122926291373629</v>
+      </c>
+      <c r="G74">
+        <v>0.0266970199762524</v>
+      </c>
+      <c r="H74">
+        <v>-0.1393962767327354</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09946338869358484</v>
+        <v>0.102218056446185</v>
       </c>
       <c r="C75">
-        <v>-0.05326129391418172</v>
+        <v>0.01943911443755633</v>
       </c>
       <c r="D75">
-        <v>0.006517854656126579</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.02746169359113416</v>
+      </c>
+      <c r="E75">
+        <v>0.000606715493740288</v>
+      </c>
+      <c r="F75">
+        <v>-0.0005204989957160269</v>
+      </c>
+      <c r="G75">
+        <v>0.004563266114649159</v>
+      </c>
+      <c r="H75">
+        <v>-0.09667545283531896</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1265353720626247</v>
+        <v>0.1385435933897998</v>
       </c>
       <c r="C76">
-        <v>-0.07510805767449007</v>
+        <v>0.0386264862641586</v>
       </c>
       <c r="D76">
-        <v>0.02165976537935052</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05940910771159094</v>
+      </c>
+      <c r="E76">
+        <v>0.01046619257724835</v>
+      </c>
+      <c r="F76">
+        <v>0.02976661130361358</v>
+      </c>
+      <c r="G76">
+        <v>-0.02280286267119225</v>
+      </c>
+      <c r="H76">
+        <v>-0.2276555435930517</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1178436973641438</v>
+        <v>0.1014743637520259</v>
       </c>
       <c r="C77">
-        <v>-0.04217182439130555</v>
+        <v>-0.005680464002289841</v>
       </c>
       <c r="D77">
-        <v>0.08366428206263654</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.0409930623460515</v>
+      </c>
+      <c r="E77">
+        <v>0.03969051142762998</v>
+      </c>
+      <c r="F77">
+        <v>0.07075950764049246</v>
+      </c>
+      <c r="G77">
+        <v>-0.7942016210591711</v>
+      </c>
+      <c r="H77">
+        <v>0.3618549775754284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.1059852996816237</v>
+        <v>0.1526463153660009</v>
       </c>
       <c r="C78">
-        <v>-0.04618977089252095</v>
+        <v>0.03410563251298995</v>
       </c>
       <c r="D78">
-        <v>0.0860170248784676</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0818521414111707</v>
+      </c>
+      <c r="E78">
+        <v>0.05711598478968066</v>
+      </c>
+      <c r="F78">
+        <v>0.05569915469672845</v>
+      </c>
+      <c r="G78">
+        <v>-0.02969252005633978</v>
+      </c>
+      <c r="H78">
+        <v>0.08073363936421706</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1405079013743381</v>
+        <v>0.1449525642968743</v>
       </c>
       <c r="C79">
-        <v>-0.07681932723748165</v>
+        <v>0.03197120609986397</v>
       </c>
       <c r="D79">
-        <v>0.0212012506204644</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05037327749174026</v>
+      </c>
+      <c r="E79">
+        <v>-0.01615350085276659</v>
+      </c>
+      <c r="F79">
+        <v>0.01529665343922111</v>
+      </c>
+      <c r="G79">
+        <v>-0.02738316653179958</v>
+      </c>
+      <c r="H79">
+        <v>-0.1737334795976256</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04260232024965353</v>
+        <v>0.04372091808260447</v>
       </c>
       <c r="C80">
-        <v>-0.02325891983308647</v>
+        <v>0.01169034372532335</v>
       </c>
       <c r="D80">
-        <v>0.02779896470713285</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01535592310904808</v>
+      </c>
+      <c r="E80">
+        <v>-0.04229177464255151</v>
+      </c>
+      <c r="F80">
+        <v>0.006828299798778657</v>
+      </c>
+      <c r="G80">
+        <v>0.01612828545540337</v>
+      </c>
+      <c r="H80">
+        <v>-0.03963282479905531</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1218566507372082</v>
+        <v>0.1256914549777393</v>
       </c>
       <c r="C81">
-        <v>-0.07608540077428223</v>
+        <v>0.03941178383045928</v>
       </c>
       <c r="D81">
-        <v>0.0193514345898381</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.03410608959584629</v>
+      </c>
+      <c r="E81">
+        <v>0.006144894199792927</v>
+      </c>
+      <c r="F81">
+        <v>0.0173330617045305</v>
+      </c>
+      <c r="G81">
+        <v>0.001013751878369934</v>
+      </c>
+      <c r="H81">
+        <v>-0.1498972366326795</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1286139923309498</v>
+        <v>0.1303178964504828</v>
       </c>
       <c r="C82">
-        <v>-0.07532620556331571</v>
+        <v>0.0380625829410001</v>
       </c>
       <c r="D82">
-        <v>0.009199937230183182</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03861499077373718</v>
+      </c>
+      <c r="E82">
+        <v>-0.02325403954776531</v>
+      </c>
+      <c r="F82">
+        <v>0.03729401956322299</v>
+      </c>
+      <c r="G82">
+        <v>-0.008929971763356056</v>
+      </c>
+      <c r="H82">
+        <v>-0.2213001499600869</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06592004408734459</v>
+        <v>0.08289851925038053</v>
       </c>
       <c r="C83">
-        <v>0.01381756697556308</v>
+        <v>-0.02503940643212134</v>
       </c>
       <c r="D83">
-        <v>0.01937841758944202</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.0163786312845238</v>
+      </c>
+      <c r="E83">
+        <v>0.01355878386972125</v>
+      </c>
+      <c r="F83">
+        <v>0.03364177669479752</v>
+      </c>
+      <c r="G83">
+        <v>0.04613749589069915</v>
+      </c>
+      <c r="H83">
+        <v>0.03119764394786404</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.02972101363531096</v>
+        <v>0.03468476356396888</v>
       </c>
       <c r="C84">
-        <v>-0.03790505789778807</v>
+        <v>0.0174434090141683</v>
       </c>
       <c r="D84">
-        <v>0.03487918766196914</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.04489098636464463</v>
+      </c>
+      <c r="E84">
+        <v>0.01894229572753309</v>
+      </c>
+      <c r="F84">
+        <v>-0.03678198984309462</v>
+      </c>
+      <c r="G84">
+        <v>0.03392893759253486</v>
+      </c>
+      <c r="H84">
+        <v>-0.02321852637640548</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1161678481052122</v>
+        <v>0.12193146134845</v>
       </c>
       <c r="C85">
-        <v>-0.04526232775676563</v>
+        <v>0.01284869026614007</v>
       </c>
       <c r="D85">
-        <v>0.04744114320327972</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.04130409007844073</v>
+      </c>
+      <c r="E85">
+        <v>0.01642321247411751</v>
+      </c>
+      <c r="F85">
+        <v>0.03490656605562592</v>
+      </c>
+      <c r="G85">
+        <v>0.005565990832917957</v>
+      </c>
+      <c r="H85">
+        <v>-0.1436718151699732</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05126595608430477</v>
+        <v>0.05589213713405153</v>
       </c>
       <c r="C86">
-        <v>-0.02741376619084274</v>
+        <v>0.007263751917251746</v>
       </c>
       <c r="D86">
-        <v>0.06553135802456947</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.03507282213315346</v>
+      </c>
+      <c r="E86">
+        <v>0.04070128705660399</v>
+      </c>
+      <c r="F86">
+        <v>0.02590705431476494</v>
+      </c>
+      <c r="G86">
+        <v>0.03641168723311623</v>
+      </c>
+      <c r="H86">
+        <v>0.05231106368382701</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1225508178583612</v>
+        <v>0.1257677982130828</v>
       </c>
       <c r="C87">
-        <v>-0.08336210501010896</v>
+        <v>0.03135824609924378</v>
       </c>
       <c r="D87">
-        <v>0.06457647660719128</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.07187974880233433</v>
+      </c>
+      <c r="E87">
+        <v>0.02014529585792428</v>
+      </c>
+      <c r="F87">
+        <v>0.02432546301279254</v>
+      </c>
+      <c r="G87">
+        <v>-0.1474487783952945</v>
+      </c>
+      <c r="H87">
+        <v>0.07775870388739053</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05334179273168595</v>
+        <v>0.06334770413253965</v>
       </c>
       <c r="C88">
-        <v>-0.03724099941634587</v>
+        <v>0.01934182982497124</v>
       </c>
       <c r="D88">
-        <v>0.02501510080830757</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.04354895005685216</v>
+      </c>
+      <c r="E88">
+        <v>0.002071515941100832</v>
+      </c>
+      <c r="F88">
+        <v>0.02223056546694185</v>
+      </c>
+      <c r="G88">
+        <v>-0.01000867227357206</v>
+      </c>
+      <c r="H88">
+        <v>-0.04660863437100758</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.07684447858036303</v>
+        <v>0.1029922443829122</v>
       </c>
       <c r="C89">
-        <v>-0.0637288828659881</v>
+        <v>0.1623637568276599</v>
       </c>
       <c r="D89">
-        <v>-0.3186512546360111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3246321183680376</v>
+      </c>
+      <c r="E89">
+        <v>0.06096843351532912</v>
+      </c>
+      <c r="F89">
+        <v>0.07092061106973579</v>
+      </c>
+      <c r="G89">
+        <v>0.02453232000723887</v>
+      </c>
+      <c r="H89">
+        <v>-0.0212717731424665</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.05768289393518476</v>
+        <v>0.0782027908460588</v>
       </c>
       <c r="C90">
-        <v>-0.04792957954576896</v>
+        <v>0.1276852798177724</v>
       </c>
       <c r="D90">
-        <v>-0.2834956146699069</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.268918123694102</v>
+      </c>
+      <c r="E90">
+        <v>0.05664354854817719</v>
+      </c>
+      <c r="F90">
+        <v>0.02828766190880924</v>
+      </c>
+      <c r="G90">
+        <v>-0.02978658097850933</v>
+      </c>
+      <c r="H90">
+        <v>0.01753273894903533</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08829044980037278</v>
+        <v>0.08989388753996015</v>
       </c>
       <c r="C91">
-        <v>-0.05677612775971976</v>
+        <v>0.02409183066446385</v>
       </c>
       <c r="D91">
-        <v>0.01161205382661798</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.03607775693597416</v>
+      </c>
+      <c r="E91">
+        <v>0.006046583688453062</v>
+      </c>
+      <c r="F91">
+        <v>0.003233518489287465</v>
+      </c>
+      <c r="G91">
+        <v>0.01813094514237796</v>
+      </c>
+      <c r="H91">
+        <v>-0.08833784740621299</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.06086195276353499</v>
+        <v>0.08065354099802893</v>
       </c>
       <c r="C92">
-        <v>-0.05863983130339611</v>
+        <v>0.1505539301619905</v>
       </c>
       <c r="D92">
-        <v>-0.3332993470782077</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3134667741973539</v>
+      </c>
+      <c r="E92">
+        <v>0.05239591833558069</v>
+      </c>
+      <c r="F92">
+        <v>0.03649121634962919</v>
+      </c>
+      <c r="G92">
+        <v>-0.005231942662807012</v>
+      </c>
+      <c r="H92">
+        <v>-0.02430029668243356</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.05209387963670261</v>
+        <v>0.07610461200504491</v>
       </c>
       <c r="C93">
-        <v>-0.05229171143862791</v>
+        <v>0.1420556450223865</v>
       </c>
       <c r="D93">
-        <v>-0.3004091101254605</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2835716804393433</v>
+      </c>
+      <c r="E93">
+        <v>0.02984759364778719</v>
+      </c>
+      <c r="F93">
+        <v>0.02806273018592578</v>
+      </c>
+      <c r="G93">
+        <v>-0.01303514506942244</v>
+      </c>
+      <c r="H93">
+        <v>-0.003541750696429478</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1287395491285827</v>
+        <v>0.1263102770248161</v>
       </c>
       <c r="C94">
-        <v>-0.04304498089389906</v>
+        <v>0.0001708466138243029</v>
       </c>
       <c r="D94">
-        <v>0.04407035481736609</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04788179727210438</v>
+      </c>
+      <c r="E94">
+        <v>-0.01907854974732407</v>
+      </c>
+      <c r="F94">
+        <v>0.01817514286629431</v>
+      </c>
+      <c r="G94">
+        <v>0.03031827671547686</v>
+      </c>
+      <c r="H94">
+        <v>-0.1108944556604357</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.1200218731799617</v>
+        <v>0.1299491487252138</v>
       </c>
       <c r="C95">
-        <v>-0.03633472803647084</v>
+        <v>-0.001170516956486704</v>
       </c>
       <c r="D95">
-        <v>0.05866827535169217</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.06183551310912522</v>
+      </c>
+      <c r="E95">
+        <v>0.003682704962710996</v>
+      </c>
+      <c r="F95">
+        <v>0.05488844313763105</v>
+      </c>
+      <c r="G95">
+        <v>-0.03917709035584186</v>
+      </c>
+      <c r="H95">
+        <v>0.09043535528954677</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2236045567483457</v>
+        <v>0.195016259333674</v>
       </c>
       <c r="C97">
-        <v>-0.0600515351907973</v>
+        <v>-0.002222049913084871</v>
       </c>
       <c r="D97">
-        <v>-0.1264446805768573</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.06122476211840928</v>
+      </c>
+      <c r="E97">
+        <v>-0.05625921972336218</v>
+      </c>
+      <c r="F97">
+        <v>-0.9384381415438807</v>
+      </c>
+      <c r="G97">
+        <v>-0.05028231560613081</v>
+      </c>
+      <c r="H97">
+        <v>0.03076094493297478</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2375475545420095</v>
+        <v>0.272749235544663</v>
       </c>
       <c r="C98">
-        <v>-0.06735358187272973</v>
+        <v>0.02263097794320879</v>
       </c>
       <c r="D98">
-        <v>0.01144598461277582</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.04073337475793529</v>
+      </c>
+      <c r="E98">
+        <v>-0.2035059210901284</v>
+      </c>
+      <c r="F98">
+        <v>0.04183654375889562</v>
+      </c>
+      <c r="G98">
+        <v>0.3240030274902471</v>
+      </c>
+      <c r="H98">
+        <v>0.20766518576056</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.4482956552951846</v>
+        <v>0.2868983349348973</v>
       </c>
       <c r="C99">
-        <v>0.8770566148056629</v>
+        <v>-0.8832198107521245</v>
       </c>
       <c r="D99">
-        <v>-0.03335238844774691</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.319293124726614</v>
+      </c>
+      <c r="E99">
+        <v>0.0683066232608916</v>
+      </c>
+      <c r="F99">
+        <v>0.0747128072445546</v>
+      </c>
+      <c r="G99">
+        <v>-0.01600174190343456</v>
+      </c>
+      <c r="H99">
+        <v>-0.06916319596451953</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04428888730920916</v>
+        <v>0.04799261982746936</v>
       </c>
       <c r="C101">
-        <v>-0.04176903941373843</v>
+        <v>0.02952157844537799</v>
       </c>
       <c r="D101">
-        <v>0.0006657348727039538</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01716206012301553</v>
+      </c>
+      <c r="E101">
+        <v>0.05454944304762854</v>
+      </c>
+      <c r="F101">
+        <v>0.01444709334871343</v>
+      </c>
+      <c r="G101">
+        <v>-0.007676636333373623</v>
+      </c>
+      <c r="H101">
+        <v>-0.07649264817138991</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
